--- a/output/raw_data/CNH_HKD.xlsx
+++ b/output/raw_data/CNH_HKD.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3908"/>
+  <dimension ref="A1:B3937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31648,7 +31648,239 @@
         <v>45901</v>
       </c>
       <c r="B3908">
-        <v>1.093425168684332</v>
+        <v>1.092709384460141</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2">
+      <c r="A3909" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B3909">
+        <v>1.093605099110458</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2">
+      <c r="A3910" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B3910">
+        <v>1.092569507668604</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2">
+      <c r="A3911" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B3911">
+        <v>1.093082236888198</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2">
+      <c r="A3912" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B3912">
+        <v>1.094117481967949</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2">
+      <c r="A3913" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B3913">
+        <v>1.094136972453879</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2">
+      <c r="A3914" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B3914">
+        <v>1.093346434587311</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:2">
+      <c r="A3915" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B3915">
+        <v>1.094015533489698</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:2">
+      <c r="A3916" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B3916">
+        <v>1.095052650817529</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:2">
+      <c r="A3917" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B3917">
+        <v>1.09170912459472</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:2">
+      <c r="A3918" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B3918">
+        <v>1.092823329446965</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:2">
+      <c r="A3919" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B3919">
+        <v>1.095170394560887</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:2">
+      <c r="A3920" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B3920">
+        <v>1.095195854805553</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:2">
+      <c r="A3921" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B3921">
+        <v>1.094122777402656</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:2">
+      <c r="A3922" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B3922">
+        <v>1.091988088883895</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:2">
+      <c r="A3923" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B3923">
+        <v>1.091954184526737</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:2">
+      <c r="A3924" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B3924">
+        <v>1.09307392777317</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:2">
+      <c r="A3925" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B3925">
+        <v>1.089760293643789</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:2">
+      <c r="A3926" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B3926">
+        <v>1.089304708055758</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:2">
+      <c r="A3927" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B3927">
+        <v>1.089153961387151</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:2">
+      <c r="A3928" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B3928">
+        <v>1.091788930344769</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:2">
+      <c r="A3929" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B3929">
+        <v>1.091698462574346</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:2">
+      <c r="A3930" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B3930">
+        <v>1.091708754208754</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:2">
+      <c r="A3931" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B3931">
+        <v>1.091128308658591</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:2">
+      <c r="A3932" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B3932">
+        <v>1.090358744394619</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:2">
+      <c r="A3933" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B3933">
+        <v>1.08966299371351</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:2">
+      <c r="A3934" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B3934">
+        <v>1.089170013574217</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:2">
+      <c r="A3935" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B3935">
+        <v>1.0883878998084</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:2">
+      <c r="A3936" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B3936">
+        <v>1.090194595048964</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:2">
+      <c r="A3937" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B3937">
+        <v>1.088813028149309</v>
       </c>
     </row>
   </sheetData>
